--- a/EDT_EAH/bin/Release/TEMPLATE_PROFS.xlsx
+++ b/EDT_EAH/bin/Release/TEMPLATE_PROFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Perso\edt-eah\EDT_EAH_Test\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Perso\edt-eah\EDT_EAH\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9581883-1ED9-4FDC-B0DD-B619EA39BC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E4CD3-60BC-48BB-B69A-E8AE0EA45F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B421DF7C-5B02-4BD2-934A-298AE8BE187A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B421DF7C-5B02-4BD2-934A-298AE8BE187A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -115,9 +115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -130,14 +127,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +459,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K9"/>
+      <selection activeCell="K9" sqref="B1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,143 +471,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>44095</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="str">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
         <f>UPPER(TEXT(B1,"jjjj"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="5" t="str">
         <f>IF($A$2="VENDREDI","9h15","9h30")</f>
         <v>9h30</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF($A$2="VENDREDI","10h00","10h15")</f>
         <v>10h15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <f>IF($A$2="VENDREDI","10h45","11h00")</f>
         <v>11h00</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF($A$2="VENDREDI","11h30","11h45")</f>
         <v>11h45</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>